--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10230" windowHeight="7965" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,8 +131,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -189,15 +189,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,22 +211,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,9 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,45 +287,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,37 +316,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,145 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,12 +510,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -531,30 +544,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -577,24 +566,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +583,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,127 +631,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -124,6 +127,21 @@
   </si>
   <si>
     <t>o8K!^&amp;PmkO$z</t>
+  </si>
+  <si>
+    <t>Mgmt@avantis.info</t>
+  </si>
+  <si>
+    <t>fe@bitaconsulting.co.in</t>
+  </si>
+  <si>
+    <t>auditor@abcd.com</t>
+  </si>
+  <si>
+    <t>Questions Answer</t>
+  </si>
+  <si>
+    <t>last Word</t>
   </si>
 </sst>
 </file>
@@ -131,18 +149,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF598FDE"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -159,14 +197,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
@@ -174,6 +204,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -181,22 +225,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,52 +262,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,8 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,17 +302,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +537,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,15 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,6 +575,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,8 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,19 +637,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,140 +658,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,7 +1119,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1098,15 +1133,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1114,7 +1149,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1184,8 +1219,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="9" customFormat="1" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1268,7 +1303,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1284,7 +1319,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1326,8 +1361,57 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="74.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B2" r:id="rId2" display="cfo@bitaconsulting.co.in"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1340,7 +1424,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1348,21 +1432,128 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B2" r:id="rId1" display="Mgmt@avantis.info" tooltip="mailto:Mgmt@avantis.info"/>
+    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
+    <hyperlink ref="B1" r:id="rId3" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="fe@bitaconsulting.co.in" tooltip="mailto:fe@bitaconsulting.co.in"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="auditor@abcd.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1508,8 +1508,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -142,6 +143,9 @@
   </si>
   <si>
     <t>last Word</t>
+  </si>
+  <si>
+    <t>Shivrajapprover@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -149,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -204,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +222,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,20 +252,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,21 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -308,6 +305,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -315,21 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -346,13 +350,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,169 +428,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,9 +546,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +566,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +620,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -640,15 +644,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,138 +665,136 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1133,15 +1135,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1149,7 +1151,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1219,8 +1221,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:1">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1303,7 +1305,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1319,7 +1321,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1362,7 +1364,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1375,7 +1377,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1383,7 +1385,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1391,14 +1393,14 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId2" display="cfo@bitaconsulting.co.in"/>
+    <hyperlink ref="B2" r:id="rId2" display="cfo@bitaconsulting.co.in" tooltip="mailto:cfo@bitaconsulting.co.in"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1424,7 +1426,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1432,7 +1434,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1440,7 +1442,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1473,7 +1475,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1489,7 +1491,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1509,7 +1511,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1522,7 +1524,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1532,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1538,21 +1540,79 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="auditor@abcd.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B3" r:id="rId3" display="admin@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Shivrajapprover@gmail.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -208,6 +208,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -215,14 +222,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,105 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,41 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,6 +593,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -641,10 +630,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +665,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>URL</t>
   </si>
@@ -146,6 +147,9 @@
   </si>
   <si>
     <t>Shivrajapprover@gmail.com</t>
+  </si>
+  <si>
+    <t>departmenthead@abcd.com</t>
   </si>
 </sst>
 </file>
@@ -153,9 +157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -215,6 +219,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -223,6 +234,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +271,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -252,29 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -284,22 +311,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,21 +338,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -350,19 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,163 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +545,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,21 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -630,167 +645,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1135,15 +1140,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1151,7 +1156,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1221,8 +1226,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="8" customFormat="1" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1305,7 +1310,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1321,7 +1326,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1363,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1377,7 +1382,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1385,7 +1390,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1393,7 +1398,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1426,7 +1431,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1434,7 +1439,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1442,7 +1447,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1475,7 +1480,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1483,7 +1488,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1491,7 +1496,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1524,7 +1529,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1532,7 +1537,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1540,15 +1545,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1569,7 +1574,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1582,7 +1587,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1595,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1598,7 +1603,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1613,6 +1618,64 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Shivrajapprover@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B3" r:id="rId3" display="admin@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="departmenthead@abcd.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -212,7 +212,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,15 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,69 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -318,22 +326,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,181 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,28 +548,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,15 +577,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,18 +598,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,157 +636,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1140,15 +1139,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1156,7 +1155,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1226,8 +1225,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1310,7 +1309,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1325,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1382,7 +1381,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1390,7 +1389,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1398,7 +1397,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1431,7 +1430,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1438,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1447,7 +1446,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1480,7 +1479,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1488,7 +1487,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1496,7 +1495,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1529,7 +1528,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1537,7 +1536,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1545,15 +1544,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1587,7 +1586,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1595,7 +1594,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1632,7 +1631,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1676,7 +1675,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="departmenthead@abcd.com"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="7"/>
+    <workbookView windowWidth="8310" windowHeight="4095" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -212,7 +212,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,18 +278,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,37 +296,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -296,7 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,21 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,187 +354,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,15 +553,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +583,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,7 +648,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1139,15 +1138,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1155,7 +1154,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1225,8 +1224,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1309,7 +1308,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1325,7 +1324,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1381,7 +1380,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1388,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1397,7 +1396,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1430,7 +1429,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1438,7 +1437,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1446,7 +1445,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1479,7 +1478,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1487,7 +1486,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1495,7 +1494,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1528,7 +1527,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1536,7 +1535,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1544,15 +1543,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1586,7 +1585,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1594,7 +1593,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1602,7 +1601,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1631,7 +1630,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1652,7 +1651,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8310" windowHeight="4095" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>URL</t>
   </si>
@@ -150,6 +152,21 @@
   </si>
   <si>
     <t>departmenthead@abcd.com</t>
+  </si>
+  <si>
+    <t>deepali@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Mayuri@1234</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>Deepali@11</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
   </si>
 </sst>
 </file>
@@ -157,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -225,6 +242,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,14 +313,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,48 +335,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,43 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -360,61 +377,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,24 +545,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,90 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,15 +562,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,6 +576,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,26 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -618,6 +615,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +651,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -669,132 +686,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1124,7 +1142,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1138,15 +1156,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1154,7 +1172,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1224,8 +1242,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:1">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1285,6 +1303,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="55.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1308,7 +1371,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1324,7 +1387,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1380,7 +1443,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1388,7 +1451,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1396,7 +1459,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1429,7 +1492,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1437,7 +1500,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1445,7 +1508,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1478,7 +1541,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1486,7 +1549,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1494,7 +1557,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1527,7 +1590,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1535,7 +1598,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1543,15 +1606,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1585,7 +1648,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1593,7 +1656,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1601,7 +1664,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1629,8 +1692,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1643,7 +1706,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1651,7 +1714,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1679,4 +1742,63 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Mayuri@1234" tooltip="mailto:Mayuri@1234"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B4" r:id="rId3" display="Deepali@11"/>
+    <hyperlink ref="B2" r:id="rId4" display="deepali@tlregtech.in" tooltip="mailto:deepali@tlregtech.in"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -242,8 +242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +260,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +281,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -272,11 +327,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,27 +342,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,43 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -371,19 +371,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,163 +527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +562,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,41 +645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +662,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +686,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1156,15 +1157,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1172,7 +1173,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1242,8 +1243,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="8" customFormat="1" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1313,7 +1314,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1326,7 +1327,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1334,7 +1335,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1347,6 +1348,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="fe@bitaconsulting.co.in"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://test.avantisregtec.in/DIYProduction/Login.aspx"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1371,7 +1376,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1387,7 +1392,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1429,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1443,7 +1448,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1456,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1459,7 +1464,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1492,7 +1497,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1500,7 +1505,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1508,7 +1513,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1541,7 +1546,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1549,7 +1554,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1557,7 +1562,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1590,7 +1595,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1603,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1606,15 +1611,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1648,7 +1653,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1656,7 +1661,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1664,7 +1669,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1706,7 +1711,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1714,7 +1719,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1749,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1763,7 +1768,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1776,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1779,7 +1784,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1787,7 +1792,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -229,14 +229,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,112 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -371,43 +371,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,139 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,71 +562,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,7 +584,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,18 +627,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,133 +686,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1157,15 +1156,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1173,7 +1172,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1243,8 +1242,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1376,7 +1375,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1391,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1435,7 +1434,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1448,7 +1447,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1456,7 +1455,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1464,7 +1463,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1497,7 +1496,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1505,7 +1504,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1513,7 +1512,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1546,7 +1545,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1554,7 +1553,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1562,7 +1561,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1595,7 +1594,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1603,7 +1602,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1611,15 +1610,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1653,7 +1652,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1661,7 +1660,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1669,7 +1668,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1711,7 +1710,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1719,7 +1718,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -174,8 +174,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -229,14 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +237,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +266,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -266,29 +282,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,31 +311,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,21 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -371,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +562,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,57 +624,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,20 +648,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +686,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1156,15 +1155,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1172,7 +1171,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1242,8 +1241,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1375,7 +1374,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1390,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1434,7 +1433,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1447,7 +1446,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1454,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1463,7 +1462,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1496,7 +1495,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1504,7 +1503,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1512,7 +1511,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1545,7 +1544,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1553,7 +1552,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1561,7 +1560,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1594,7 +1593,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1602,7 +1601,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1610,15 +1609,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1652,7 +1651,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1660,7 +1659,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1668,7 +1667,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1710,7 +1709,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1718,7 +1717,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1767,7 +1766,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1775,7 +1774,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1783,7 +1782,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1791,7 +1790,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>URL</t>
   </si>
@@ -118,7 +119,7 @@
     <t>No Message1</t>
   </si>
   <si>
-    <t>reviewer@gmail.com</t>
+    <t>reviewer@avantis.info</t>
   </si>
   <si>
     <t>Remark</t>
@@ -167,6 +168,9 @@
   </si>
   <si>
     <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
+  </si>
+  <si>
+    <t>amrutadesai@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -174,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -229,13 +233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -246,6 +243,53 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,62 +303,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,28 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -355,6 +345,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -371,187 +375,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +566,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,24 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -622,13 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,170 +647,177 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1141,7 +1147,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1155,15 +1161,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1171,7 +1177,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1241,8 +1247,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:1">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="8" customFormat="1" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1312,7 +1318,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1325,7 +1331,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1333,7 +1339,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1349,6 +1355,55 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="fe@bitaconsulting.co.in"/>
     <hyperlink ref="B1" r:id="rId2" display="https://test.avantisregtec.in/DIYProduction/Login.aspx"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="amrutadesai@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1360,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1374,7 +1429,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1437,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1390,7 +1445,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1419,8 +1474,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123" tooltip="mailto:admin@123"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B2" r:id="rId3" display="reviewer@avantis.info"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1432,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1446,7 +1502,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1454,7 +1510,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1462,7 +1518,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1482,7 +1538,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1495,7 +1551,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1559,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1511,7 +1567,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1532,7 +1588,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1544,7 +1600,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1552,7 +1608,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1560,7 +1616,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1593,7 +1649,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1601,7 +1657,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1609,15 +1665,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1651,7 +1707,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +1715,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1667,7 +1723,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1709,7 +1765,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1717,7 +1773,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1753,7 +1809,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1766,7 +1822,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1774,7 +1830,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1782,7 +1838,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1790,7 +1846,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,8 +180,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -239,8 +239,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,48 +308,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,35 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -345,20 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,25 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,157 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,15 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,6 +593,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -617,17 +617,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,18 +652,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,134 +690,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,15 +1159,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1177,7 +1175,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1247,8 +1245,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="6" customFormat="1" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1331,7 +1329,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1339,7 +1337,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1388,7 +1386,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1415,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1429,7 +1427,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1445,7 +1443,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1502,7 +1500,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1510,7 +1508,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1518,7 +1516,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1551,7 +1549,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1559,7 +1557,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1567,7 +1565,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1600,7 +1598,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1608,7 +1606,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1616,7 +1614,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1635,8 +1633,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1649,7 +1647,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1657,7 +1655,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1665,15 +1663,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1707,7 +1705,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1715,7 +1713,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1723,7 +1721,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1765,7 +1763,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1771,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1822,7 +1820,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1830,7 +1828,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1838,7 +1836,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1846,7 +1844,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -254,8 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,29 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -309,28 +302,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,21 +346,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,19 +375,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,163 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,15 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,8 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,17 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -666,151 +646,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1633,8 +1633,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1691,8 +1691,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -232,13 +232,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -254,6 +247,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -308,20 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -338,6 +338,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +354,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -375,187 +375,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +566,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,15 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,6 +649,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -657,27 +666,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,127 +690,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1691,8 +1691,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,6 +232,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -241,28 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,48 +317,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,9 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,31 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,151 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +573,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,15 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,6 +604,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,148 +669,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1692,7 +1692,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1735,7 +1735,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Shivrajapprover@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Shivrajapprover@gmail.com" tooltip="mailto:Shivrajapprover@gmail.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId3" display="admin@123"/>
   </hyperlinks>
@@ -1749,8 +1749,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1793,7 +1793,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="departmenthead@abcd.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="departmenthead@abcd.com" tooltip="mailto:departmenthead@abcd.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -240,6 +240,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -248,6 +255,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,14 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -309,21 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -339,14 +339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,31 +375,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,144 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +595,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,21 +628,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,127 +690,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1413,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1474,7 +1474,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="admin@123" tooltip="mailto:admin@123"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId3" display="reviewer@avantis.info"/>
+    <hyperlink ref="B2" r:id="rId3" display="reviewer@avantis.info" tooltip="mailto:reviewer@avantis.info"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1749,7 +1749,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -233,14 +233,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +256,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +271,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,21 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,24 +338,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,28 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,174 +375,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,12 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +566,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,6 +591,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,30 +653,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -646,30 +666,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,127 +690,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1435,7 +1435,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -233,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +241,112 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,112 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,43 +375,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,121 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,52 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,164 +618,199 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1413,7 +1413,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1486,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
